--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CoHCF-3.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CoHCF-3.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CV Analysis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Empty Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,14 +476,14 @@
         <v>0.844</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>5.251181263263962</v>
+        <v>5.25118126326415</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
         <v>0.513</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-2.13915638287404</v>
+        <v>-2.139156382874117</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -495,14 +495,14 @@
         <v>0.846</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>5.219115274569071</v>
+        <v>5.219115274569242</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
         <v>0.513</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-2.143577852472122</v>
+        <v>-2.143577852472193</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -514,14 +514,14 @@
         <v>0.848</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>5.157866927193326</v>
+        <v>5.157866927193501</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
         <v>0.512</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-2.151933056128337</v>
+        <v>-2.15193305612841</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -533,14 +533,14 @@
         <v>0.849</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>5.085492102900559</v>
+        <v>5.085492102900732</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
         <v>0.511</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-2.143051389144966</v>
+        <v>-2.143051389145041</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -552,14 +552,14 @@
         <v>0.849</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>5.013263486116817</v>
+        <v>5.013263486116978</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>0.511</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-2.131652908906853</v>
+        <v>-2.131652908906925</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -571,14 +571,14 @@
         <v>0.85</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>4.943127373918131</v>
+        <v>4.943127373918303</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
         <v>0.51</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-2.132399655707774</v>
+        <v>-2.13239965570785</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -590,14 +590,14 @@
         <v>0.851</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>4.870792244389471</v>
+        <v>4.870792244389633</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>0.51</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-2.123332464849634</v>
+        <v>-2.123332464849705</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -609,14 +609,14 @@
         <v>0.851</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>4.791871486560991</v>
+        <v>4.791871486561156</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
         <v>0.509</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-2.116003243007209</v>
+        <v>-2.116003243007278</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -628,14 +628,14 @@
         <v>0.85</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>4.707893136668155</v>
+        <v>4.707893136668303</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
         <v>0.509</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-2.110485681266607</v>
+        <v>-2.110485681266682</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -647,14 +647,14 @@
         <v>0.852</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>4.635755212377698</v>
+        <v>4.635755212377835</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
         <v>0.508</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-2.104534345623517</v>
+        <v>-2.104534345623593</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -666,14 +666,14 @@
         <v>0.851</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>4.560128301270062</v>
+        <v>4.56012830127021</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
         <v>0.508</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-2.098293758216998</v>
+        <v>-2.09829375821707</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -685,14 +685,14 @@
         <v>0.852</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>4.480015432703389</v>
+        <v>4.480015432703527</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
         <v>0.509</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-2.090114873751024</v>
+        <v>-2.090114873751097</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -704,14 +704,14 @@
         <v>0.852</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>4.403778459274976</v>
+        <v>4.403778459275123</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
         <v>0.507</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-2.08856759634464</v>
+        <v>-2.088567596344709</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -723,14 +723,14 @@
         <v>0.852</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>4.338101142774429</v>
+        <v>4.338101142774578</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
         <v>0.506</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-2.085284149377839</v>
+        <v>-2.085284149377913</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -742,14 +742,14 @@
         <v>0.852</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4.272509720487384</v>
+        <v>4.272509720487531</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
         <v>0.506</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-2.088042177189543</v>
+        <v>-2.088042177189614</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -761,14 +761,14 @@
         <v>0.85</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>4.205801203707031</v>
+        <v>4.205801203707181</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
         <v>0.505</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-2.08455614531085</v>
+        <v>-2.084556145310923</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -780,14 +780,14 @@
         <v>0.851</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>4.138063217738436</v>
+        <v>4.138063217738577</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
         <v>0.505</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-2.080745170321866</v>
+        <v>-2.080745170321938</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -799,14 +799,14 @@
         <v>0.85</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>4.086020574010545</v>
+        <v>4.086020574010676</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
         <v>0.504</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-2.086705773517642</v>
+        <v>-2.086705773517711</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -818,14 +818,14 @@
         <v>0.851</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>4.029993959112432</v>
+        <v>4.029993959112566</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
         <v>0.505</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-2.087981424532375</v>
+        <v>-2.087981424532447</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -837,14 +837,14 @@
         <v>0.85</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>3.978272943262765</v>
+        <v>3.978272943262906</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
         <v>0.504</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-2.088412703342579</v>
+        <v>-2.088412703342646</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -856,14 +856,14 @@
         <v>0.851</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>3.924564052364739</v>
+        <v>3.924564052364869</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
         <v>0.503</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-2.093072774747446</v>
+        <v>-2.093072774747516</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -875,14 +875,14 @@
         <v>0.85</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>3.872439465412794</v>
+        <v>3.872439465412926</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
         <v>0.502</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-2.094961430707845</v>
+        <v>-2.094961430707917</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -894,14 +894,14 @@
         <v>0.85</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>3.823581987336503</v>
+        <v>3.823581987336632</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
         <v>0.501</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-2.100331755532185</v>
+        <v>-2.100331755532253</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -913,14 +913,14 @@
         <v>0.849</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>3.786306209020371</v>
+        <v>3.786306209020498</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
         <v>0.501</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-2.108601718461934</v>
+        <v>-2.108601718462004</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -932,14 +932,14 @@
         <v>0.85</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>3.744608145985979</v>
+        <v>3.744608145986116</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-2.114075218030361</v>
+        <v>-2.114075218030433</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -951,14 +951,14 @@
         <v>0.85</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>3.697682829826296</v>
+        <v>3.697682829826419</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-2.114970237670103</v>
+        <v>-2.11497023767018</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -970,14 +970,14 @@
         <v>0.85</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>3.660314480897191</v>
+        <v>3.660314480897319</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
         <v>0.499</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-2.117622298358614</v>
+        <v>-2.117622298358686</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -989,14 +989,14 @@
         <v>0.85</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>3.619630457624602</v>
+        <v>3.619630457624724</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
         <v>0.499</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-2.123332102612991</v>
+        <v>-2.123332102613062</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.85</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>3.585169219040122</v>
+        <v>3.585169219040244</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
         <v>0.499</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-2.127994912204707</v>
+        <v>-2.127994912204773</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1027,14 +1027,14 @@
         <v>0.85</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>3.544533646517533</v>
+        <v>3.544533646517662</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
         <v>0.499</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-2.133243988415044</v>
+        <v>-2.133243988415114</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1046,14 +1046,14 @@
         <v>0.851</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>3.508315292617418</v>
+        <v>3.508315292617533</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
         <v>0.497</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-2.134043351880574</v>
+        <v>-2.134043351880647</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1065,14 +1065,14 @@
         <v>0.851</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>3.470398926617864</v>
+        <v>3.470398926617979</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
         <v>0.497</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-2.140498658419316</v>
+        <v>-2.140498658419388</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1084,14 +1084,14 @@
         <v>0.851</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>3.442640560564976</v>
+        <v>3.442640560565083</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
         <v>0.496</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-2.148310475277876</v>
+        <v>-2.148310475277952</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1103,14 +1103,14 @@
         <v>0.85</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>3.410498255825267</v>
+        <v>3.410498255825374</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
         <v>0.496</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-2.15227915250311</v>
+        <v>-2.152279152503183</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1122,14 +1122,14 @@
         <v>0.851</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>3.382615917421183</v>
+        <v>3.382615917421302</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
         <v>0.495</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-2.1572950982404</v>
+        <v>-2.157295098240474</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1141,14 +1141,14 @@
         <v>0.851</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>3.353346097906353</v>
+        <v>3.353346097906469</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
         <v>0.495</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-2.162106962585719</v>
+        <v>-2.162106962585788</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1160,14 +1160,14 @@
         <v>0.852</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>3.329266424158332</v>
+        <v>3.329266424158443</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
         <v>0.494</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-2.166809286066577</v>
+        <v>-2.166809286066653</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1179,14 +1179,14 @@
         <v>0.852</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>3.30147643157877</v>
+        <v>3.301476431578874</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
         <v>0.494</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-2.174426818784903</v>
+        <v>-2.174426818784978</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1198,14 +1198,14 @@
         <v>0.852</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>3.274850945289918</v>
+        <v>3.274850945290038</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
         <v>0.493</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-2.1786796527834</v>
+        <v>-2.178679652783476</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1217,14 +1217,14 @@
         <v>0.852</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>3.248263373979237</v>
+        <v>3.248263373979353</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
         <v>0.494</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-2.184699613080054</v>
+        <v>-2.184699613080126</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1236,14 +1236,14 @@
         <v>0.852</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>3.220229125184803</v>
+        <v>3.220229125184914</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
         <v>0.493</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-2.184805200247988</v>
+        <v>-2.18480520024806</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1255,14 +1255,14 @@
         <v>0.853</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>3.193621938250526</v>
+        <v>3.193621938250637</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
         <v>0.492</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-2.191095733845189</v>
+        <v>-2.19109573384526</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1274,14 +1274,14 @@
         <v>0.853</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>3.16913799476178</v>
+        <v>3.169137994761881</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
         <v>0.491</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-2.194675223912887</v>
+        <v>-2.194675223912965</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1293,14 +1293,14 @@
         <v>0.852</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>3.145774861828709</v>
+        <v>3.14577486182882</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
         <v>0.491</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-2.197370446121748</v>
+        <v>-2.197370446121821</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1312,14 +1312,14 @@
         <v>0.854</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>3.12546313357045</v>
+        <v>3.125463133570543</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
         <v>0.49</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-2.199629207342395</v>
+        <v>-2.199629207342469</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1331,14 +1331,14 @@
         <v>0.854</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>3.097628953563731</v>
+        <v>3.097628953563831</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
         <v>0.49</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-2.201839709135025</v>
+        <v>-2.2018397091351</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1350,14 +1350,14 @@
         <v>0.855</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>3.081330522455258</v>
+        <v>3.081330522455349</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
         <v>0.489</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-2.206670925673266</v>
+        <v>-2.206670925673339</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1369,14 +1369,14 @@
         <v>0.854</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>3.058321682411083</v>
+        <v>3.058321682411183</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
         <v>0.489</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-2.206689455502143</v>
+        <v>-2.206689455502214</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>
@@ -1388,14 +1388,14 @@
         <v>0.855</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>3.03527445067479</v>
+        <v>3.03527445067489</v>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="n">
         <v>0.488</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>-2.208200403883228</v>
+        <v>-2.208200403883302</v>
       </c>
       <c r="G50" s="2" t="inlineStr"/>
     </row>

--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CoHCF-3.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CoHCF-3.xlsx
@@ -447,23 +447,23 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Potential (V)</t>
+          <t>Oxidation Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Current (uAmps)</t>
+          <t>Oxidation Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr"/>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Potential (V)</t>
+          <t>Reduction Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Current (uAmps)</t>
+          <t>Reduction Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr"/>
@@ -473,17 +473,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.844</v>
+        <v>0.845</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>5.25118126326415</v>
+        <v>5.314081587162193</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
-        <v>0.513</v>
+        <v>0.512</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-2.139156382874117</v>
+        <v>2.205732063099154</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -492,17 +492,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.846</v>
+        <v>0.845</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>5.219115274569242</v>
+        <v>5.18135371036803</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>0.513</v>
+        <v>0.511</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-2.143577852472193</v>
+        <v>2.209272303598136</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -511,17 +511,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.848</v>
+        <v>0.847</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>5.157866927193501</v>
+        <v>5.158200560375019</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
-        <v>0.512</v>
+        <v>0.511</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-2.15193305612841</v>
+        <v>2.198377968523627</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -533,14 +533,14 @@
         <v>0.849</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>5.085492102900732</v>
+        <v>5.136993379179381</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
         <v>0.511</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-2.143051389145041</v>
+        <v>2.189290048170033</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -549,17 +549,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.849</v>
+        <v>0.85</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>5.013263486116978</v>
+        <v>5.060941011707493</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
-        <v>0.511</v>
+        <v>0.51</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-2.131652908906925</v>
+        <v>2.30745958093592</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -571,14 +571,14 @@
         <v>0.85</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>4.943127373918303</v>
+        <v>4.998916701184868</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
-        <v>0.51</v>
+        <v>0.509</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-2.13239965570785</v>
+        <v>2.324874747808567</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -590,14 +590,14 @@
         <v>0.851</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>4.870792244389633</v>
+        <v>4.916906020588403</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
-        <v>0.51</v>
+        <v>0.508</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-2.123332464849705</v>
+        <v>2.299857422144863</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -606,17 +606,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.851</v>
+        <v>0.85</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>4.791871486561156</v>
+        <v>4.848270531169769</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
-        <v>0.509</v>
+        <v>0.508</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-2.116003243007278</v>
+        <v>2.290186567866865</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -625,17 +625,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.85</v>
+        <v>0.852</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>4.707893136668303</v>
+        <v>4.754428386762002</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
-        <v>0.509</v>
+        <v>0.507</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-2.110485681266682</v>
+        <v>2.269558985538747</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -644,17 +644,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.852</v>
+        <v>0.851</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>4.635755212377835</v>
+        <v>4.687114993017317</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
-        <v>0.508</v>
+        <v>0.507</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-2.104534345623593</v>
+        <v>2.269822157580145</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -663,17 +663,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.851</v>
+        <v>0.852</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>4.56012830127021</v>
+        <v>4.646851090760467</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
-        <v>0.508</v>
+        <v>0.505</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-2.09829375821707</v>
+        <v>2.278264555178642</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -682,17 +682,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.852</v>
+        <v>0.851</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>4.480015432703527</v>
+        <v>4.477735591524685</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
-        <v>0.509</v>
+        <v>0.506</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-2.090114873751097</v>
+        <v>2.222189875635521</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -704,14 +704,14 @@
         <v>0.852</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>4.403778459275123</v>
+        <v>4.468199813312588</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
-        <v>0.507</v>
+        <v>0.506</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-2.088567596344709</v>
+        <v>2.20501207840493</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -723,14 +723,14 @@
         <v>0.852</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>4.338101142774578</v>
+        <v>4.44424933230114</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
-        <v>0.506</v>
+        <v>0.505</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-2.085284149377913</v>
+        <v>2.200772484181528</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -739,17 +739,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.852</v>
+        <v>0.85</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4.272509720487531</v>
+        <v>4.309785162655443</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
         <v>0.506</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-2.088042177189614</v>
+        <v>2.143208980950694</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -758,17 +758,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.85</v>
+        <v>0.851</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>4.205801203707181</v>
+        <v>4.262055078397023</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
         <v>0.505</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-2.084556145310923</v>
+        <v>2.191694911011186</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -777,17 +777,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.851</v>
+        <v>0.854</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>4.138063217738577</v>
+        <v>4.234062978201918</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
-        <v>0.505</v>
+        <v>0.504</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-2.080745170321938</v>
+        <v>2.208030417874276</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -796,17 +796,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.85</v>
+        <v>0.851</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>4.086020574010676</v>
+        <v>4.151797890315038</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
-        <v>0.504</v>
+        <v>0.503</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-2.086705773517711</v>
+        <v>2.187933437817431</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -818,14 +818,14 @@
         <v>0.851</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>4.029993959112566</v>
+        <v>4.090577102284845</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
-        <v>0.505</v>
+        <v>0.503</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-2.087981424532447</v>
+        <v>2.195293730805704</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -834,17 +834,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.85</v>
+        <v>0.851</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>3.978272943262906</v>
+        <v>4.046817199303717</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
-        <v>0.504</v>
+        <v>0.501</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-2.088412703342646</v>
+        <v>2.211235631875262</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -856,14 +856,14 @@
         <v>0.851</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>3.924564052364869</v>
+        <v>3.976008995033075</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
-        <v>0.503</v>
+        <v>0.501</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-2.093072774747516</v>
+        <v>2.197548045894383</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -872,17 +872,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.85</v>
+        <v>0.851</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>3.872439465412926</v>
+        <v>3.937784072340355</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
-        <v>0.502</v>
+        <v>0.501</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-2.094961430707917</v>
+        <v>2.19603911019393</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -894,14 +894,14 @@
         <v>0.85</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>3.823581987336632</v>
+        <v>3.89920470578755</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
         <v>0.501</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-2.100331755532253</v>
+        <v>2.196041407662099</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -910,17 +910,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.849</v>
+        <v>0.85</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>3.786306209020498</v>
+        <v>3.865941876086899</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
-        <v>0.501</v>
+        <v>0.499</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-2.108601718462004</v>
+        <v>2.231421694418414</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -929,17 +929,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.85</v>
+        <v>0.851</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>3.744608145986116</v>
+        <v>3.840090650658099</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
-        <v>0.5</v>
+        <v>0.498</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-2.114075218030433</v>
+        <v>2.321693593647704</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -948,17 +948,17 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.85</v>
+        <v>0.852</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>3.697682829826419</v>
+        <v>3.770611216596199</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
-        <v>0.5</v>
+        <v>0.497</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-2.11497023767018</v>
+        <v>2.342385997105243</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -967,17 +967,17 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.85</v>
+        <v>0.848</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>3.660314480897319</v>
+        <v>3.714762088436098</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
-        <v>0.499</v>
+        <v>0.498</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-2.117622298358686</v>
+        <v>2.282962899301592</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -986,17 +986,17 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.85</v>
+        <v>0.849</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>3.619630457624724</v>
+        <v>3.677993377939685</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
-        <v>0.499</v>
+        <v>0.498</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-2.123332102613062</v>
+        <v>2.224382917497449</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.85</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>3.585169219040244</v>
+        <v>3.640962688292476</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
-        <v>0.499</v>
+        <v>0.497</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-2.127994912204773</v>
+        <v>2.220636978994076</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1024,17 +1024,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.85</v>
+        <v>0.851</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>3.544533646517662</v>
+        <v>3.588024405612504</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
-        <v>0.499</v>
+        <v>0.497</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-2.133243988415114</v>
+        <v>2.20777280426641</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1046,14 +1046,14 @@
         <v>0.851</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>3.508315292617533</v>
+        <v>3.544241089504952</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
-        <v>0.497</v>
+        <v>0.496</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-2.134043351880647</v>
+        <v>2.214721634819453</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1062,17 +1062,17 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.851</v>
+        <v>0.853</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>3.470398926617979</v>
+        <v>3.527056300724364</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
-        <v>0.497</v>
+        <v>0.495</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-2.140498658419388</v>
+        <v>2.232509177199242</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1084,14 +1084,14 @@
         <v>0.851</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>3.442640560565083</v>
+        <v>3.496753469586404</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
-        <v>0.496</v>
+        <v>0.495</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-2.148310475277952</v>
+        <v>2.259179039373442</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1103,14 +1103,14 @@
         <v>0.85</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>3.410498255825374</v>
+        <v>3.476836820932328</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
         <v>0.496</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-2.152279152503183</v>
+        <v>2.269419461997531</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1122,14 +1122,14 @@
         <v>0.851</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>3.382615917421302</v>
+        <v>3.418563486732715</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
         <v>0.495</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-2.157295098240474</v>
+        <v>2.272982821013007</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1138,17 +1138,17 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.851</v>
+        <v>0.852</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>3.353346097906469</v>
+        <v>3.409459693023447</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
-        <v>0.495</v>
+        <v>0.494</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-2.162106962585788</v>
+        <v>2.260635946752471</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1160,14 +1160,14 @@
         <v>0.852</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>3.329266424158443</v>
+        <v>3.380747050404567</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
-        <v>0.494</v>
+        <v>0.493</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-2.166809286066653</v>
+        <v>2.247677236655822</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1176,17 +1176,17 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.852</v>
+        <v>0.854</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>3.301476431578874</v>
+        <v>3.364805495063704</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
-        <v>0.494</v>
+        <v>0.493</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-2.174426818784978</v>
+        <v>2.273596965678732</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1195,17 +1195,17 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.852</v>
+        <v>0.854</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>3.274850945290038</v>
+        <v>3.346967981880089</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
-        <v>0.493</v>
+        <v>0.492</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-2.178679652783476</v>
+        <v>2.271941714786033</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1214,17 +1214,17 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.852</v>
+        <v>0.85</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>3.248263373979353</v>
+        <v>3.256547083682409</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
-        <v>0.494</v>
+        <v>0.491</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-2.184699613080126</v>
+        <v>2.279861455096883</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1236,14 +1236,14 @@
         <v>0.852</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>3.220229125184914</v>
+        <v>3.251000192312206</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
-        <v>0.493</v>
+        <v>0.491</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-2.18480520024806</v>
+        <v>2.273320720278047</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1252,17 +1252,17 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.853</v>
+        <v>0.851</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>3.193621938250637</v>
+        <v>3.217091888979165</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
-        <v>0.492</v>
+        <v>0.491</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-2.19109573384526</v>
+        <v>2.246445313176745</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1271,17 +1271,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.853</v>
+        <v>0.852</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>3.169137994761881</v>
+        <v>3.205826862270915</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
-        <v>0.491</v>
+        <v>0.492</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-2.194675223912965</v>
+        <v>2.23782015950171</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1290,17 +1290,17 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.852</v>
+        <v>0.854</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>3.14577486182882</v>
+        <v>3.198677424202645</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
-        <v>0.491</v>
+        <v>0.49</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-2.197370446121821</v>
+        <v>2.223003391866276</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1309,17 +1309,17 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.854</v>
+        <v>0.851</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>3.125463133570543</v>
+        <v>3.118502427378112</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
-        <v>0.49</v>
+        <v>0.488</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-2.199629207342469</v>
+        <v>2.312454606786703</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1328,17 +1328,17 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.854</v>
+        <v>0.853</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>3.097628953563831</v>
+        <v>3.10131453115616</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
-        <v>0.49</v>
+        <v>0.489</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-2.2018397091351</v>
+        <v>2.304462324550287</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1347,17 +1347,17 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.855</v>
+        <v>0.856</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>3.081330522455349</v>
+        <v>3.1652443901692</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
-        <v>0.489</v>
+        <v>0.488</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-2.206670925673339</v>
+        <v>2.315950716974677</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1366,17 +1366,17 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.854</v>
+        <v>0.856</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>3.058321682411183</v>
+        <v>3.114557334446316</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
-        <v>0.489</v>
+        <v>0.487</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-2.206689455502214</v>
+        <v>2.308761171232629</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>
@@ -1385,17 +1385,17 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>0.855</v>
+        <v>0.857</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>3.03527445067489</v>
+        <v>3.106201390667212</v>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="n">
         <v>0.488</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>-2.208200403883302</v>
+        <v>2.303766538226578</v>
       </c>
       <c r="G50" s="2" t="inlineStr"/>
     </row>

--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CoHCF-3.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CoHCF-3.xlsx
@@ -473,17 +473,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.845</v>
+        <v>0.844</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>5.314081587162193</v>
+        <v>5.295308015780971</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
         <v>0.512</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.205732063099154</v>
+        <v>2.307964004247874</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -495,14 +495,14 @@
         <v>0.845</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>5.18135371036803</v>
+        <v>5.262787864875186</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>0.511</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.209272303598136</v>
+        <v>2.31033414951266</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -511,17 +511,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.847</v>
+        <v>0.848</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>5.158200560375019</v>
+        <v>5.203259390435191</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
-        <v>0.511</v>
+        <v>0.509</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.198377968523627</v>
+        <v>2.31423195279099</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -533,14 +533,14 @@
         <v>0.849</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>5.136993379179381</v>
+        <v>5.137862110985134</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
-        <v>0.511</v>
+        <v>0.508</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.189290048170033</v>
+        <v>2.300529806998243</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -552,14 +552,14 @@
         <v>0.85</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>5.060941011707493</v>
+        <v>5.060965020145053</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>0.51</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.30745958093592</v>
+        <v>2.307535835165265</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -571,14 +571,14 @@
         <v>0.85</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>4.998916701184868</v>
+        <v>5.008538241265209</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
         <v>0.509</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.324874747808567</v>
+        <v>2.306669707870705</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -590,14 +590,14 @@
         <v>0.851</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>4.916906020588403</v>
+        <v>4.921473050970517</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>0.508</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.299857422144863</v>
+        <v>2.296051702998359</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -609,14 +609,14 @@
         <v>0.85</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>4.848270531169769</v>
+        <v>4.858920269056869</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
         <v>0.508</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.290186567866865</v>
+        <v>2.281989265434998</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -628,14 +628,14 @@
         <v>0.852</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>4.754428386762002</v>
+        <v>4.768827747426265</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
         <v>0.507</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.269558985538747</v>
+        <v>2.269166549737084</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -647,14 +647,14 @@
         <v>0.851</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>4.687114993017317</v>
+        <v>4.686698496592645</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
         <v>0.507</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.269822157580145</v>
+        <v>2.269882827245549</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -663,17 +663,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.852</v>
+        <v>0.85</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>4.646851090760467</v>
+        <v>4.615591468625084</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
-        <v>0.505</v>
+        <v>0.507</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.278264555178642</v>
+        <v>2.261983958909108</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -685,14 +685,14 @@
         <v>0.851</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>4.477735591524685</v>
+        <v>4.534469912336185</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
         <v>0.506</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.222189875635521</v>
+        <v>2.237096132617707</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -701,17 +701,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.852</v>
+        <v>0.851</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>4.468199813312588</v>
+        <v>4.461994884920379</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
-        <v>0.506</v>
+        <v>0.505</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.20501207840493</v>
+        <v>2.217277795266156</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -723,14 +723,14 @@
         <v>0.852</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>4.44424933230114</v>
+        <v>4.407938454721256</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
         <v>0.505</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.200772484181528</v>
+        <v>2.206875955699322</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -742,14 +742,14 @@
         <v>0.85</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4.309785162655443</v>
+        <v>4.326001012898044</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
         <v>0.506</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.143208980950694</v>
+        <v>2.19767732376194</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -761,14 +761,14 @@
         <v>0.851</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>4.262055078397023</v>
+        <v>4.256016418633203</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
         <v>0.505</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.191694911011186</v>
+        <v>2.206114035429126</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -780,14 +780,14 @@
         <v>0.854</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>4.234062978201918</v>
+        <v>4.212099755277216</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
         <v>0.504</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.208030417874276</v>
+        <v>2.204397858588526</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -799,14 +799,14 @@
         <v>0.851</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>4.151797890315038</v>
+        <v>4.139168720517303</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
         <v>0.503</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.187933437817431</v>
+        <v>2.198150501110976</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -818,14 +818,14 @@
         <v>0.851</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>4.090577102284845</v>
+        <v>4.097182109923205</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
         <v>0.503</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.195293730805704</v>
+        <v>2.205263885535658</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -837,14 +837,14 @@
         <v>0.851</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>4.046817199303717</v>
+        <v>4.043765588921187</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
         <v>0.501</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.211235631875262</v>
+        <v>2.206036917332421</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -856,14 +856,14 @@
         <v>0.851</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>3.976008995033075</v>
+        <v>3.985479623451268</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
         <v>0.501</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.197548045894383</v>
+        <v>2.21469909856026</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -875,14 +875,14 @@
         <v>0.851</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>3.937784072340355</v>
+        <v>3.933273938149118</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
         <v>0.501</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.19603911019393</v>
+        <v>2.22770948546412</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -894,14 +894,14 @@
         <v>0.85</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>3.89920470578755</v>
+        <v>3.889391921373944</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
-        <v>0.501</v>
+        <v>0.5</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.196041407662099</v>
+        <v>2.250051649241313</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -913,14 +913,14 @@
         <v>0.85</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>3.865941876086899</v>
+        <v>3.854524452116378</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
-        <v>0.499</v>
+        <v>0.498</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.231421694418414</v>
+        <v>2.278098284706632</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -932,14 +932,14 @@
         <v>0.851</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>3.840090650658099</v>
+        <v>3.821047675000734</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
         <v>0.498</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.321693593647704</v>
+        <v>2.29400664294382</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -951,14 +951,14 @@
         <v>0.852</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>3.770611216596199</v>
+        <v>3.760013491695291</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
-        <v>0.497</v>
+        <v>0.499</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.342385997105243</v>
+        <v>2.289513034903198</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -970,14 +970,14 @@
         <v>0.848</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>3.714762088436098</v>
+        <v>3.71485502351485</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
         <v>0.498</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.282962899301592</v>
+        <v>2.277606846245155</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -989,14 +989,14 @@
         <v>0.849</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>3.677993377939685</v>
+        <v>3.683612212015549</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
-        <v>0.498</v>
+        <v>0.497</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.224382917497449</v>
+        <v>2.286007186801174</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.85</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>3.640962688292476</v>
+        <v>3.639947397010271</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
         <v>0.497</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.220636978994076</v>
+        <v>2.27475568926069</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1027,14 +1027,14 @@
         <v>0.851</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>3.588024405612504</v>
+        <v>3.603328264009487</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
-        <v>0.497</v>
+        <v>0.496</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.20777280426641</v>
+        <v>2.263567159589544</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1043,17 +1043,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.851</v>
+        <v>0.852</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>3.544241089504952</v>
+        <v>3.584575769666868</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
         <v>0.496</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.214721634819453</v>
+        <v>2.258768789324599</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1065,14 +1065,14 @@
         <v>0.853</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>3.527056300724364</v>
+        <v>3.530310112325299</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
         <v>0.495</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.232509177199242</v>
+        <v>2.25169269587077</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1084,14 +1084,14 @@
         <v>0.851</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>3.496753469586404</v>
+        <v>3.503577049521627</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
         <v>0.495</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>2.259179039373442</v>
+        <v>2.258598613677769</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1100,17 +1100,17 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.85</v>
+        <v>0.851</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>3.476836820932328</v>
+        <v>3.478813523914913</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
         <v>0.496</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>2.269419461997531</v>
+        <v>2.256346418678022</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1119,17 +1119,17 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.851</v>
+        <v>0.852</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>3.418563486732715</v>
+        <v>3.441495384986248</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
         <v>0.495</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2.272982821013007</v>
+        <v>2.260677209471277</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1141,14 +1141,14 @@
         <v>0.852</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>3.409459693023447</v>
+        <v>3.419081626741296</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
         <v>0.494</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2.260635946752471</v>
+        <v>2.267389276543836</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1160,14 +1160,14 @@
         <v>0.852</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>3.380747050404567</v>
+        <v>3.391702710305752</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
         <v>0.493</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>2.247677236655822</v>
+        <v>2.268073030694559</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1179,14 +1179,14 @@
         <v>0.854</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>3.364805495063704</v>
+        <v>3.369157642375677</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
         <v>0.493</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>2.273596965678732</v>
+        <v>2.276342499871142</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1195,17 +1195,17 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.854</v>
+        <v>0.852</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>3.346967981880089</v>
+        <v>3.33801783355044</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
         <v>0.492</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>2.271941714786033</v>
+        <v>2.280252429898009</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1214,17 +1214,17 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.85</v>
+        <v>0.853</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>3.256547083682409</v>
+        <v>3.313025490747594</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
         <v>0.491</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>2.279861455096883</v>
+        <v>2.284885683823807</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1236,14 +1236,14 @@
         <v>0.852</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>3.251000192312206</v>
+        <v>3.280848560102641</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
         <v>0.491</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>2.273320720278047</v>
+        <v>2.277640673424926</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1252,17 +1252,17 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.851</v>
+        <v>0.853</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>3.217091888979165</v>
+        <v>3.258577723728376</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
         <v>0.491</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>2.246445313176745</v>
+        <v>2.272424660254647</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1271,17 +1271,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.852</v>
+        <v>0.853</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>3.205826862270915</v>
+        <v>3.246908391426257</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
-        <v>0.492</v>
+        <v>0.49</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>2.23782015950171</v>
+        <v>2.272038471308342</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1293,14 +1293,14 @@
         <v>0.854</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>3.198677424202645</v>
+        <v>3.199954730984104</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
         <v>0.49</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>2.223003391866276</v>
+        <v>2.271636918552707</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1309,17 +1309,17 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.851</v>
+        <v>0.853</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>3.118502427378112</v>
+        <v>3.176443254945385</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
-        <v>0.488</v>
+        <v>0.489</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>2.312454606786703</v>
+        <v>2.287849517180135</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1331,14 +1331,14 @@
         <v>0.853</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>3.10131453115616</v>
+        <v>3.150907551069987</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
         <v>0.489</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>2.304462324550287</v>
+        <v>2.290659750166145</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1350,14 +1350,14 @@
         <v>0.856</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>3.1652443901692</v>
+        <v>3.159101125900647</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
         <v>0.488</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>2.315950716974677</v>
+        <v>2.305368210245589</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1369,14 +1369,14 @@
         <v>0.856</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>3.114557334446316</v>
+        <v>3.127002377978576</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
         <v>0.487</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>2.308761171232629</v>
+        <v>2.30494776734376</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>
@@ -1388,14 +1388,14 @@
         <v>0.857</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>3.106201390667212</v>
+        <v>3.096468743678138</v>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="n">
         <v>0.488</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>2.303766538226578</v>
+        <v>2.301437455415945</v>
       </c>
       <c r="G50" s="2" t="inlineStr"/>
     </row>
